--- a/validation/arabidopsis/simulation_sp/produced_at_night.xlsx
+++ b/validation/arabidopsis/simulation_sp/produced_at_night.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,17 +458,17 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Nitrate_c_Day_sp_exchange</t>
+          <t>Nitrate_c__Day_sp_exchange</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.1375282857142897</v>
+        <v>-0.1375282857142793</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1401839999999958</v>
+        <v>-0.1401839999999979</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.04086264285727192</v>
+        <v>-0.04086264285660046</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -477,17 +477,17 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Glycine_c_Day_sp_exchange</t>
+          <t>Glycine_c__Day_sp_exchange</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.01872200000000451</v>
+        <v>-0.01872199999999186</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.01872199999995558</v>
+        <v>-0.01872200000000252</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01872200000006762</v>
+        <v>0.01872199999999683</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -496,17 +496,17 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>L-Alanine_c_Day_sp_exchange</t>
+          <t>L-Alanine_c__Day_sp_exchange</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.633878365080086</v>
+        <v>-1.633878365079167</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.725505666663866</v>
+        <v>-3.725505666666646</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.438243583334033</v>
+        <v>-1.438243583333793</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -515,17 +515,17 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>D-Fructose_Day_sp_exchange</t>
+          <t>D-Fructose__Day_sp_exchange</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03316499999999999</v>
+        <v>-0.033165</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.559019999997367</v>
+        <v>-0.5590200000000399</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5590200000006319</v>
+        <v>0.5590199999981873</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -534,17 +534,17 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Citrate_c_Day_sp_exchange</t>
+          <t>Citrate_c__Day_sp_exchange</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.388793301588703</v>
+        <v>-1.38879330158621</v>
       </c>
       <c r="C6" t="n">
-        <v>-7.734369500011056</v>
+        <v>-7.734369500004439</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.345983222222662</v>
+        <v>-1.345983222221735</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
